--- a/Team-Data/2020-21/12-22-2020-21.xlsx
+++ b/Team-Data/2020-21/12-22-2020-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF5"/>
+  <dimension ref="A1:KL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,6 +716,1206 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>E_OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>E_DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>E_NET_RATING</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>E_PACE</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>PACE</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_PER40</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>POSS</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO_RANK</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO_RANK</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_RANK</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>PIE_RANK</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR_RANK</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT_RANK</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>DREB</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_RANK</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>STL_RANK</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>BLK_RANK</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA_RANK</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M_RANK</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A_RANK</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM_RANK</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RANK</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_RANK</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB_RANK</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB_RANK</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST_RANK</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL_RANK</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK_RANK</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA_RANK</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF_RANK</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD_RANK</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_RANK</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS_RANK</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
@@ -896,7 +2096,751 @@
           <t>Brooklyn Nets</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BF2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>112</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>112</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="DB2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="EF2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>21</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>28</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>46</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>44</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="HB2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="HD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>19</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="IH2" t="n">
+        <v>1610612751</v>
+      </c>
+      <c r="II2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>-26</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="KL2" t="inlineStr">
         <is>
           <t>12-22-2020-21</t>
         </is>
@@ -1078,7 +3022,751 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BF3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>112</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>112</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="DB3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="EF3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="EH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>19</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>21</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>44</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>46</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="HB3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="HC3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="HD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>28</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="IH3" t="n">
+        <v>1610612744</v>
+      </c>
+      <c r="II3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>42</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>92</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>15</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>35</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>26</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>57</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>24</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>22</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>24</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>125</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="KL3" t="inlineStr">
         <is>
           <t>12-22-2020-21</t>
         </is>
@@ -1260,7 +3948,751 @@
           <t>LA Clippers</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BF4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>106</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>104</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>104</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="DB4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="DD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="EF4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="EH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>16</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>15</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>16</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>50</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>9</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>12</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>38</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="FL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="HB4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="HC4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>19</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="IH4" t="n">
+        <v>1610612746</v>
+      </c>
+      <c r="II4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>38</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>81</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>29</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>24</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>31</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>37</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>29</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>109</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK4" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="KL4" t="inlineStr">
         <is>
           <t>12-22-2020-21</t>
         </is>
@@ -1442,7 +4874,751 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BF5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>106</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>104</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>104</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="DB5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="DD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="EF5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="EH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>19</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>9</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>38</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>15</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>16</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>50</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="FJ5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="FL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="HB5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="HC5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="HD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>37</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>16</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="IH5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="II5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>44</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>93</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>40</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>19</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>29</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>20</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>116</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="KL5" t="inlineStr">
         <is>
           <t>12-22-2020-21</t>
         </is>
